--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,28 +43,34 @@
     <t>return</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>maybe</t>
+    <t>junk</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>disappointing</t>
   </si>
   <si>
     <t>thin</t>
@@ -73,123 +79,162 @@
     <t>ok</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>grind</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>seal</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>filters</t>
+    <t>send</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>together</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>machine</t>
   </si>
   <si>
     <t>unit</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>rust</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>way</t>
+    <t>small</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -202,15 +247,15 @@
     <t>love</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -220,19 +265,25 @@
     <t>salad</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
     <t>great</t>
+  </si>
+  <si>
+    <t>wonderful</t>
   </si>
   <si>
     <t>easy</t>
@@ -596,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9911504424778761</v>
+        <v>0.9823008849557522</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.9247311827956989</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9661016949152542</v>
+        <v>0.96</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9622641509433962</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.8900928792569659</v>
+        <v>0.8777089783281734</v>
       </c>
       <c r="L5">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M5">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9595959595959596</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K6">
-        <v>0.8478260869565217</v>
+        <v>0.8542372881355932</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9245283018867925</v>
+        <v>0.925</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K7">
-        <v>0.8441558441558441</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9135135135135135</v>
+        <v>0.9222222222222223</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,31 +984,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8">
+        <v>0.7922077922077922</v>
+      </c>
+      <c r="L8">
+        <v>61</v>
+      </c>
+      <c r="M8">
+        <v>61</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8">
-        <v>0.8440677966101695</v>
-      </c>
-      <c r="L8">
-        <v>249</v>
-      </c>
-      <c r="M8">
-        <v>249</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>0.7705627705627706</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L9">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M9">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,16 +1087,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>0.6842105263157895</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8846153846153846</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>0.6301369863013698</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8767123287671232</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,31 +1184,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>0.5185185185185185</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>0.5142857142857142</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L13">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8653846153846154</v>
+        <v>0.8767123287671232</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>0.5079365079365079</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8604651162790697</v>
+        <v>0.8740740740740741</v>
       </c>
       <c r="C15">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D15">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>0.3693693693693694</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.839622641509434</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>0.3499197431781702</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="L16">
-        <v>436</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>436</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>810</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8235294117647058</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>0.03972602739726028</v>
+        <v>0.406099518459069</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>506</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>506</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>701</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8108108108108109</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,7 +1484,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="L18">
+        <v>27</v>
+      </c>
+      <c r="M18">
+        <v>27</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8028169014084507</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,7 +1534,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19">
+        <v>0.1397260273972603</v>
+      </c>
+      <c r="L19">
+        <v>102</v>
+      </c>
+      <c r="M19">
+        <v>102</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7846153846153846</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C20">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1493,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7756410256410257</v>
+        <v>0.8040540540540541</v>
       </c>
       <c r="C21">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1511,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1519,13 +1618,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7471264367816092</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D22">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1537,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1545,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7307692307692307</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1563,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1571,13 +1670,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.725</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1589,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1597,13 +1696,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7168141592920354</v>
+        <v>0.7701149425287356</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1615,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1623,7 +1722,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7090909090909091</v>
+        <v>0.75</v>
       </c>
       <c r="C26">
         <v>39</v>
@@ -1641,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1649,13 +1748,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7045454545454546</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1667,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1675,13 +1774,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6818181818181818</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1693,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1701,13 +1800,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6699029126213593</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C29">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1719,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1727,13 +1826,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6346153846153846</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D30">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1745,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1753,13 +1852,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5769230769230769</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1771,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1779,13 +1878,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5698324022346368</v>
+        <v>0.6875</v>
       </c>
       <c r="C32">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1797,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1805,13 +1904,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5656565656565656</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1823,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1831,13 +1930,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1849,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1857,13 +1956,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5384615384615384</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1875,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1883,13 +1982,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4868421052631579</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1901,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1909,13 +2008,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4827586206896552</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C37">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1927,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1935,13 +2034,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4576271186440678</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1953,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1961,13 +2060,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.425</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C39">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1979,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1987,13 +2086,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4123711340206185</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2005,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2013,13 +2112,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4090909090909091</v>
+        <v>0.62</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2031,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2039,13 +2138,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.308641975308642</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2057,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2065,25 +2164,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2918918918918919</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C43">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2091,13 +2190,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2761904761904762</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C44">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2109,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2117,13 +2216,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2424242424242424</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2135,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2143,13 +2242,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2317880794701987</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2161,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2169,13 +2268,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2206896551724138</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="C47">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D47">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2187,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2195,13 +2294,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1460674157303371</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2213,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>152</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2221,13 +2320,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1360544217687075</v>
+        <v>0.46</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2239,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>254</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2247,13 +2346,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1344086021505376</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2265,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>161</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2273,13 +2372,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.05442176870748299</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2291,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>695</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2299,13 +2398,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.03129074315514994</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2317,7 +2416,397 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>743</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.3423180592991914</v>
+      </c>
+      <c r="C54">
+        <v>127</v>
+      </c>
+      <c r="D54">
+        <v>127</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.3285714285714286</v>
+      </c>
+      <c r="C55">
+        <v>69</v>
+      </c>
+      <c r="D55">
+        <v>69</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.3245033112582781</v>
+      </c>
+      <c r="C56">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>49</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>22</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.2323232323232323</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="C59">
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <v>62</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.2</v>
+      </c>
+      <c r="C60">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.1919191919191919</v>
+      </c>
+      <c r="C61">
+        <v>38</v>
+      </c>
+      <c r="D61">
+        <v>38</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.1685393258426966</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.1451612903225807</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>27</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.1346938775510204</v>
+      </c>
+      <c r="C64">
+        <v>99</v>
+      </c>
+      <c r="D64">
+        <v>99</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.0903010033444816</v>
+      </c>
+      <c r="C65">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>27</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.06657963446475196</v>
+      </c>
+      <c r="C66">
+        <v>51</v>
+      </c>
+      <c r="D66">
+        <v>52</v>
+      </c>
+      <c r="E66">
+        <v>0.02</v>
+      </c>
+      <c r="F66">
+        <v>0.98</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.05609756097560976</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
